--- a/Ricsike.xlsx
+++ b/Ricsike.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totrob846\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totrob846\Documents\GitHub\Kirajok\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB297E83-59E5-4CB1-8814-43FBC78FEA04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -50,13 +51,13 @@
     <t>Tervező</t>
   </si>
   <si>
-    <t>Hamarosan….</t>
+    <t>mérföldkő</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,10 +88,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -371,64 +376,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D14:D15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="3" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="3" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:D4"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
